--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il11-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il11-Il6st.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4054036666666667</v>
+        <v>0.20014</v>
       </c>
       <c r="H2">
-        <v>1.216211</v>
+        <v>0.6004200000000001</v>
       </c>
       <c r="I2">
-        <v>0.1804054353728813</v>
+        <v>0.09409628186320101</v>
       </c>
       <c r="J2">
-        <v>0.1804054353728812</v>
+        <v>0.09409628186320104</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N2">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P2">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q2">
-        <v>17.84497062673767</v>
+        <v>14.65075055154</v>
       </c>
       <c r="R2">
-        <v>160.604735640639</v>
+        <v>131.85675496386</v>
       </c>
       <c r="S2">
-        <v>0.04572983419624158</v>
+        <v>0.03072153865569376</v>
       </c>
       <c r="T2">
-        <v>0.04572983419624158</v>
+        <v>0.03072153865569378</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4054036666666667</v>
+        <v>0.20014</v>
       </c>
       <c r="H3">
-        <v>1.216211</v>
+        <v>0.6004200000000001</v>
       </c>
       <c r="I3">
-        <v>0.1804054353728813</v>
+        <v>0.09409628186320101</v>
       </c>
       <c r="J3">
-        <v>0.1804054353728812</v>
+        <v>0.09409628186320104</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>299.30185</v>
       </c>
       <c r="O3">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P3">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q3">
-        <v>40.44602247670556</v>
+        <v>19.96742408633333</v>
       </c>
       <c r="R3">
-        <v>364.01420229035</v>
+        <v>179.706816777</v>
       </c>
       <c r="S3">
-        <v>0.1036476854148422</v>
+        <v>0.04187020922681945</v>
       </c>
       <c r="T3">
-        <v>0.1036476854148422</v>
+        <v>0.04187020922681946</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4054036666666667</v>
+        <v>0.20014</v>
       </c>
       <c r="H4">
-        <v>1.216211</v>
+        <v>0.6004200000000001</v>
       </c>
       <c r="I4">
-        <v>0.1804054353728813</v>
+        <v>0.09409628186320101</v>
       </c>
       <c r="J4">
-        <v>0.1804054353728812</v>
+        <v>0.09409628186320104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N4">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P4">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q4">
-        <v>7.708420587947444</v>
+        <v>7.913585901853335</v>
       </c>
       <c r="R4">
-        <v>69.375785291527</v>
+        <v>71.22227311668001</v>
       </c>
       <c r="S4">
-        <v>0.019753733574297</v>
+        <v>0.01659420343918048</v>
       </c>
       <c r="T4">
-        <v>0.019753733574297</v>
+        <v>0.01659420343918049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4054036666666667</v>
+        <v>0.20014</v>
       </c>
       <c r="H5">
-        <v>1.216211</v>
+        <v>0.6004200000000001</v>
       </c>
       <c r="I5">
-        <v>0.1804054353728813</v>
+        <v>0.09409628186320101</v>
       </c>
       <c r="J5">
-        <v>0.1804054353728812</v>
+        <v>0.09409628186320104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N5">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O5">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P5">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q5">
-        <v>4.399479104015</v>
+        <v>2.341680496393333</v>
       </c>
       <c r="R5">
-        <v>39.595311936135</v>
+        <v>21.07512446754</v>
       </c>
       <c r="S5">
-        <v>0.0112741821875005</v>
+        <v>0.004910330541507311</v>
       </c>
       <c r="T5">
-        <v>0.0112741821875005</v>
+        <v>0.004910330541507314</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.647638000000001</v>
       </c>
       <c r="I6">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117116</v>
       </c>
       <c r="J6">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117117</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N6">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P6">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q6">
-        <v>68.19290698218468</v>
+        <v>113.406257273006</v>
       </c>
       <c r="R6">
-        <v>613.7361628396621</v>
+        <v>1020.656315457054</v>
       </c>
       <c r="S6">
-        <v>0.1747523375007723</v>
+        <v>0.2378045209597803</v>
       </c>
       <c r="T6">
-        <v>0.1747523375007723</v>
+        <v>0.2378045209597804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.647638000000001</v>
       </c>
       <c r="I7">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117116</v>
       </c>
       <c r="J7">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117117</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>299.30185</v>
       </c>
       <c r="O7">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P7">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q7">
         <v>154.5607390589223</v>
@@ -883,10 +883,10 @@
         <v>1391.0466515303</v>
       </c>
       <c r="S7">
-        <v>0.3960800562945626</v>
+        <v>0.3241024207563318</v>
       </c>
       <c r="T7">
-        <v>0.3960800562945627</v>
+        <v>0.3241024207563318</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.647638000000001</v>
       </c>
       <c r="I8">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117116</v>
       </c>
       <c r="J8">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117117</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N8">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P8">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q8">
-        <v>29.45701728115178</v>
+        <v>61.25625820878356</v>
       </c>
       <c r="R8">
-        <v>265.113155530366</v>
+        <v>551.3063238790521</v>
       </c>
       <c r="S8">
-        <v>0.07548706828155521</v>
+        <v>0.1284498359209652</v>
       </c>
       <c r="T8">
-        <v>0.07548706828155523</v>
+        <v>0.1284498359209652</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.647638000000001</v>
       </c>
       <c r="I9">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117116</v>
       </c>
       <c r="J9">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117117</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N9">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O9">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P9">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q9">
-        <v>16.81220303387</v>
+        <v>18.12611714948956</v>
       </c>
       <c r="R9">
-        <v>151.30982730483</v>
+        <v>163.135054345406</v>
       </c>
       <c r="S9">
-        <v>0.04308324587884046</v>
+        <v>0.03800912497463436</v>
       </c>
       <c r="T9">
-        <v>0.04308324587884047</v>
+        <v>0.03800912497463437</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.145888</v>
+        <v>0.25539</v>
       </c>
       <c r="H10">
-        <v>0.437664</v>
+        <v>0.76617</v>
       </c>
       <c r="I10">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="J10">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N10">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O10">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P10">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q10">
-        <v>6.421666326304001</v>
+        <v>18.69518928429</v>
       </c>
       <c r="R10">
-        <v>57.79499693673601</v>
+        <v>168.25670355861</v>
       </c>
       <c r="S10">
-        <v>0.01645627457214568</v>
+        <v>0.03920242708742696</v>
       </c>
       <c r="T10">
-        <v>0.01645627457214568</v>
+        <v>0.03920242708742697</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.145888</v>
+        <v>0.25539</v>
       </c>
       <c r="H11">
-        <v>0.437664</v>
+        <v>0.76617</v>
       </c>
       <c r="I11">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="J11">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>299.30185</v>
       </c>
       <c r="O11">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P11">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q11">
-        <v>14.55484943093333</v>
+        <v>25.4795664905</v>
       </c>
       <c r="R11">
-        <v>130.9936448784</v>
+        <v>229.3160984145</v>
       </c>
       <c r="S11">
-        <v>0.03729851200934828</v>
+        <v>0.05342876353771071</v>
       </c>
       <c r="T11">
-        <v>0.03729851200934829</v>
+        <v>0.05342876353771071</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.145888</v>
+        <v>0.25539</v>
       </c>
       <c r="H12">
-        <v>0.437664</v>
+        <v>0.76617</v>
       </c>
       <c r="I12">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="J12">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N12">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O12">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P12">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q12">
-        <v>2.773941518538666</v>
+        <v>10.09818478802</v>
       </c>
       <c r="R12">
-        <v>24.965473666848</v>
+        <v>90.88366309218</v>
       </c>
       <c r="S12">
-        <v>0.007108551107547227</v>
+        <v>0.02117514547982564</v>
       </c>
       <c r="T12">
-        <v>0.007108551107547228</v>
+        <v>0.02117514547982564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.145888</v>
+        <v>0.25539</v>
       </c>
       <c r="H13">
-        <v>0.437664</v>
+        <v>0.76617</v>
       </c>
       <c r="I13">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="J13">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N13">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O13">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P13">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q13">
-        <v>1.58319043536</v>
+        <v>2.98811722781</v>
       </c>
       <c r="R13">
-        <v>14.24871391824</v>
+        <v>26.89305505029</v>
       </c>
       <c r="S13">
-        <v>0.00405711153156008</v>
+        <v>0.006265860482639914</v>
       </c>
       <c r="T13">
-        <v>0.004057111531560081</v>
+        <v>0.006265860482639916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1466766666666667</v>
+        <v>0.1222276666666667</v>
       </c>
       <c r="H14">
-        <v>0.44003</v>
+        <v>0.366683</v>
       </c>
       <c r="I14">
-        <v>0.06527140745078687</v>
+        <v>0.05746561893748399</v>
       </c>
       <c r="J14">
-        <v>0.06527140745078687</v>
+        <v>0.057465618937484</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>44.01778300000001</v>
+        <v>73.202511</v>
       </c>
       <c r="N14">
-        <v>132.053349</v>
+        <v>219.607533</v>
       </c>
       <c r="O14">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="P14">
-        <v>0.253483683026081</v>
+        <v>0.3264904632507938</v>
       </c>
       <c r="Q14">
-        <v>6.456381684496669</v>
+        <v>8.947372113670999</v>
       </c>
       <c r="R14">
-        <v>58.10743516047002</v>
+        <v>80.52634902303899</v>
       </c>
       <c r="S14">
-        <v>0.01654523675692144</v>
+        <v>0.01876197654789273</v>
       </c>
       <c r="T14">
-        <v>0.01654523675692144</v>
+        <v>0.01876197654789274</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1466766666666667</v>
+        <v>0.1222276666666667</v>
       </c>
       <c r="H15">
-        <v>0.44003</v>
+        <v>0.366683</v>
       </c>
       <c r="I15">
-        <v>0.06527140745078687</v>
+        <v>0.05746561893748399</v>
       </c>
       <c r="J15">
-        <v>0.06527140745078687</v>
+        <v>0.057465618937484</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>299.30185</v>
       </c>
       <c r="O15">
-        <v>0.5745264004968146</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="P15">
-        <v>0.5745264004968147</v>
+        <v>0.4449719839907295</v>
       </c>
       <c r="Q15">
-        <v>14.63353256172222</v>
+        <v>12.19432225150556</v>
       </c>
       <c r="R15">
-        <v>131.7017930555</v>
+        <v>109.74890026355</v>
       </c>
       <c r="S15">
-        <v>0.03750014677806154</v>
+        <v>0.02557059046986749</v>
       </c>
       <c r="T15">
-        <v>0.03750014677806155</v>
+        <v>0.0255705904698675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1466766666666667</v>
+        <v>0.1222276666666667</v>
       </c>
       <c r="H16">
-        <v>0.44003</v>
+        <v>0.366683</v>
       </c>
       <c r="I16">
-        <v>0.06527140745078687</v>
+        <v>0.05746561893748399</v>
       </c>
       <c r="J16">
-        <v>0.06527140745078687</v>
+        <v>0.057465618937484</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.01418566666667</v>
+        <v>39.54025133333334</v>
       </c>
       <c r="N16">
-        <v>57.042557</v>
+        <v>118.620754</v>
       </c>
       <c r="O16">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="P16">
-        <v>0.1094963327100864</v>
+        <v>0.1763534446908907</v>
       </c>
       <c r="Q16">
-        <v>2.788937372967778</v>
+        <v>4.832912659886889</v>
       </c>
       <c r="R16">
-        <v>25.10043635671</v>
+        <v>43.496213938982</v>
       </c>
       <c r="S16">
-        <v>0.007146979746686972</v>
+        <v>0.01013425985091938</v>
       </c>
       <c r="T16">
-        <v>0.007146979746686973</v>
+        <v>0.01013425985091939</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1466766666666667</v>
+        <v>0.1222276666666667</v>
       </c>
       <c r="H17">
-        <v>0.44003</v>
+        <v>0.366683</v>
       </c>
       <c r="I17">
-        <v>0.06527140745078687</v>
+        <v>0.05746561893748399</v>
       </c>
       <c r="J17">
-        <v>0.06527140745078687</v>
+        <v>0.057465618937484</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.852095</v>
+        <v>11.70021233333333</v>
       </c>
       <c r="N17">
-        <v>32.556285</v>
+        <v>35.100637</v>
       </c>
       <c r="O17">
-        <v>0.06249358376701794</v>
+        <v>0.05218410806758597</v>
       </c>
       <c r="P17">
-        <v>0.06249358376701795</v>
+        <v>0.05218410806758598</v>
       </c>
       <c r="Q17">
-        <v>1.59174912095</v>
+        <v>1.430089653007889</v>
       </c>
       <c r="R17">
-        <v>14.32574208855</v>
+        <v>12.870806877071</v>
       </c>
       <c r="S17">
-        <v>0.004079044169116908</v>
+        <v>0.002998792068804379</v>
       </c>
       <c r="T17">
-        <v>0.004079044169116909</v>
+        <v>0.002998792068804381</v>
       </c>
     </row>
   </sheetData>
